--- a/Docs/PruebasPostman it3/PostmanDocumentacion.xlsx
+++ b/Docs/PruebasPostman it3/PostmanDocumentacion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jandresgomez/GitHub/itearcion2/Docs/PruebasPostman it3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuanCamiloRuiz/Desktop/Universidad/Semestre4/Sistrans/itearcion2/Docs/PruebasPostman it3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15460" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FR11" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
   <si>
     <t>RF 11.1</t>
   </si>
@@ -150,9 +153,6 @@
     <t>El menu esta debidamene registrado en la base de datos</t>
   </si>
   <si>
-    <t>Los productos no son equivalentes</t>
-  </si>
-  <si>
     <t>Sucede cuando hay error, en este caso por que los productos a intercambiar no son equivalentes</t>
   </si>
   <si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Sucede cuando hay error, en este caso que el restaurante no se encuentra en la base de datos</t>
+  </si>
+  <si>
+    <t>El producto no hace parte del menu</t>
+  </si>
+  <si>
+    <t>Especifica el pedido que se entrego, para un usuario especifico en la mesa</t>
+  </si>
+  <si>
+    <t>El pedido existe (fue registrado anteriormente)</t>
+  </si>
+  <si>
+    <t>Retorna el JSON con el pedido que fue entregado</t>
+  </si>
+  <si>
+    <t>Sucede cuando hay error, en este caso no existe ningun pedido con el id colcoado en el JSON Pedido enviado</t>
   </si>
 </sst>
 </file>
@@ -908,7 +923,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1137,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>5</v>
@@ -1267,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
@@ -1296,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1313,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>37</v>
@@ -1324,13 +1339,13 @@
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>5</v>
@@ -1352,7 +1367,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -1369,10 +1384,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>5</v>
@@ -1380,13 +1395,13 @@
     </row>
     <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>5</v>
@@ -1400,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>7</v>
@@ -1416,7 +1431,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1444,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1446,99 +1461,73 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="9" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1562,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1579,10 +1568,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
@@ -1605,7 +1594,7 @@
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -1622,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>5</v>
@@ -1639,7 +1628,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>7</v>
@@ -1656,7 +1645,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1658,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1683,13 +1672,13 @@
     </row>
     <row r="2" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
@@ -1697,13 +1686,13 @@
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>7</v>
@@ -1712,7 +1701,7 @@
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -1726,13 +1715,13 @@
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>5</v>
@@ -1740,10 +1729,10 @@
     </row>
     <row r="7" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
@@ -1754,7 +1743,7 @@
     </row>
     <row r="9" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
@@ -1771,24 +1760,24 @@
         <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
